--- a/data/trans_orig/IBSE_100-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Clase-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>80.02255950678018</v>
+        <v>80.0225595067802</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>79.42181237034984</v>
+        <v>79.42181237034985</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79.73957559249064</v>
+        <v>79.73957559249061</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>78.30285158427964</v>
+        <v>78.33161954371016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>78.00196219327245</v>
+        <v>77.89439924798269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78.6508408943817</v>
+        <v>78.62064700494614</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>81.56367969132272</v>
+        <v>81.48653388666048</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>80.87182634203563</v>
+        <v>80.73705428088158</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80.63799473995056</v>
+        <v>80.77713525991632</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>80.03387977523583</v>
+        <v>80.03387977523582</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>76.92259542590779</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>78.52494717709472</v>
+        <v>78.41148345640983</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>75.49116451228313</v>
+        <v>75.61571452877193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77.42525155119824</v>
+        <v>77.36913406862614</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>81.60213871807684</v>
+        <v>81.65503385151321</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>78.24323571288365</v>
+        <v>78.35282246215458</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79.63915980472066</v>
+        <v>79.59168395067434</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>78.82953225823242</v>
+        <v>78.82953225823243</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>74.033459315521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77.47336683772065</v>
+        <v>77.47336683772066</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>77.12788594277477</v>
+        <v>77.13662921997924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>71.83869433187759</v>
+        <v>71.63861864581915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>76.1589739919786</v>
+        <v>76.13796076149252</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>80.41111813482836</v>
+        <v>80.56285261391768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>76.25021252229739</v>
+        <v>76.10704402116841</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78.88889182373794</v>
+        <v>78.8254061079006</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>75.23291600797013</v>
+        <v>75.33171567624032</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>74.12583878783119</v>
+        <v>74.16821371158838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75.20571209877694</v>
+        <v>75.26074427241093</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>77.6540741031838</v>
+        <v>77.70884397469148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>76.371113264436</v>
+        <v>76.47374470307807</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>76.87785369271646</v>
+        <v>76.86266807698638</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>72.75032371480179</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>68.57349687483676</v>
+        <v>68.57349687483678</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>70.26818644497402</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>70.99924153735722</v>
+        <v>70.81286740472562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>67.28819752935264</v>
+        <v>67.27712641533383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69.23232764635165</v>
+        <v>69.15640150883091</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>74.53633820036565</v>
+        <v>74.42980969089467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>69.91197401378406</v>
+        <v>69.86714258427313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71.31456408023719</v>
+        <v>71.33862973427955</v>
       </c>
     </row>
     <row r="19">
@@ -841,7 +841,7 @@
         <v>73.03868965794527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76.16023782660768</v>
+        <v>76.16023782660767</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>84.19326639920973</v>
+        <v>84.23428599594467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>71.73771118187898</v>
+        <v>71.72942809782873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74.92070126062342</v>
+        <v>74.89025996604428</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>89.56627182749702</v>
+        <v>89.64984873570324</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>74.29233724241986</v>
+        <v>74.41201311325868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77.50574518612051</v>
+        <v>77.43404886840889</v>
       </c>
     </row>
     <row r="22">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>78.02956507398559</v>
+        <v>78.02956507398561</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>73.94841537772807</v>
+        <v>73.94841537772805</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>75.93755213487027</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>77.32743834213305</v>
+        <v>77.27920862616051</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>73.33485400925271</v>
+        <v>73.3657447167266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75.48524304484752</v>
+        <v>75.45770085038197</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>78.60867846865743</v>
+        <v>78.63267209515348</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>74.52796426118799</v>
+        <v>74.55070683334615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76.39971540663363</v>
+        <v>76.41904825026607</v>
       </c>
     </row>
     <row r="25">
